--- a/data/trans_media/imc_inf-Edad-trans_media.xlsx
+++ b/data/trans_media/imc_inf-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,33</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,68</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,94</t>
+          <t>18,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,15</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,21</t>
+          <t>18,2</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,96</t>
+          <t>17,91</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>17,43</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 21,02</t>
+          <t>18,28; 23,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 19,22</t>
+          <t>16,74; 21,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 18,52</t>
+          <t>16,51; 18,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 18,36</t>
+          <t>15,76; 18,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 20,45</t>
+          <t>17,5; 21,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,22</t>
+          <t>17,16; 19,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 19,2</t>
+          <t>17,13; 21,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 18,98</t>
+          <t>16,43; 20,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 20,31</t>
+          <t>18,32; 21,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 18,89</t>
+          <t>17,28; 20,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,58</t>
+          <t>17,03; 19,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 18,14</t>
+          <t>16,47; 19,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 19,63</t>
+          <t>17,88; 19,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,02</t>
+          <t>18,57; 20,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 19,14</t>
+          <t>17,66; 19,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 19,53</t>
+          <t>17,3; 19,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,31</t>
+          <t>17,32; 18,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 18,38</t>
+          <t>17,32; 18,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 18,18</t>
+          <t>17,0; 18,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 18,42</t>
+          <t>16,91; 18,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 18,75</t>
+          <t>17,75; 18,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,1; 19,11</t>
+          <t>18,1; 19,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,42</t>
+          <t>17,43; 18,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,53</t>
+          <t>17,28; 18,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,63; 19,63</t>
+          <t>18,61; 19,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,36; 22,01</t>
+          <t>19,26; 22,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 19,82</t>
+          <t>18,82; 19,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 19,48</t>
+          <t>18,44; 19,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 19,48</t>
+          <t>18,52; 19,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,37; 20,59</t>
+          <t>19,36; 20,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 19,34</t>
+          <t>18,41; 19,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 18,89</t>
+          <t>17,89; 18,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,71; 19,38</t>
+          <t>18,69; 19,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 20,95</t>
+          <t>19,57; 20,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 19,41</t>
+          <t>18,76; 19,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,32; 19,02</t>
+          <t>18,3; 18,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,17; 21,81</t>
+          <t>21,18; 21,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,69; 21,61</t>
+          <t>20,72; 21,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 21,0</t>
+          <t>20,07; 21,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,16; 21,55</t>
+          <t>20,16; 21,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 20,84</t>
+          <t>20,19; 20,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 21,49</t>
+          <t>20,33; 21,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 21,02</t>
+          <t>20,12; 21,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 20,83</t>
+          <t>19,58; 20,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,78; 21,26</t>
+          <t>20,79; 21,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 21,41</t>
+          <t>20,67; 21,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,22; 20,83</t>
+          <t>20,23; 20,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,02; 20,94</t>
+          <t>20,0; 20,88</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>19,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>19,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,18</t>
+          <t>19,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>18,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,35</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>19,62</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,01</t>
+          <t>19,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 20,09</t>
+          <t>19,44; 20,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 20,23</t>
+          <t>19,56; 20,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,64; 19,3</t>
+          <t>18,79; 19,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 19,71</t>
+          <t>18,95; 19,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 19,33</t>
+          <t>18,74; 19,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 19,51</t>
+          <t>18,98; 19,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 19,06</t>
+          <t>18,53; 19,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,42; 19,16</t>
+          <t>18,52; 19,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,12; 19,61</t>
+          <t>19,18; 19,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,17; 19,73</t>
+          <t>19,36; 19,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,62; 19,08</t>
+          <t>18,74; 19,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,79; 19,31</t>
+          <t>18,83; 19,41</t>
         </is>
       </c>
     </row>
